--- a/download/isawecasequestion_user_details.xlsx
+++ b/download/isawecasequestion_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,25 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>dnyRF667</t>
-  </si>
-  <si>
-    <t>oiaaelc37</t>
-  </si>
-  <si>
-    <t>Y!%8f6zX</t>
+    <t>QZOgc681</t>
+  </si>
+  <si>
+    <t>oglzrte35</t>
+  </si>
+  <si>
+    <t>B2$x!j7R</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>nvHAcZUh</t>
-  </si>
-  <si>
-    <t>Kihn</t>
+    <t>DkQdKvAK</t>
+  </si>
+  <si>
+    <t>oaSk</t>
   </si>
   <si>
     <t>Candidate</t>
+  </si>
+  <si>
+    <t>obSus287</t>
+  </si>
+  <si>
+    <t>ctxlhsa87</t>
+  </si>
+  <si>
+    <t>u#4%SdC3</t>
+  </si>
+  <si>
+    <t>FNLyCDag</t>
+  </si>
+  <si>
+    <t>OmID</t>
   </si>
 </sst>
 </file>
@@ -427,10 +442,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H2"/>
+      <selection activeCell="A1" sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>2012454351</v>
+        <v>2012454478</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -484,6 +499,32 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2012454479</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
